--- a/docroot/sites/all/modules/informea/thesaurus/data/informea-old-new-mappings.xlsx
+++ b/docroot/sites/all/modules/informea/thesaurus/data/informea-old-new-mappings.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="1000">
   <si>
     <t>OLD TERM (INFORMEA.ORG/TERMS)</t>
   </si>
@@ -23,7 +23,7 @@
     <t>Acceptance</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/acceptance</t>
+    <t>http://www.informea.org/terms/acceptance</t>
   </si>
   <si>
     <t>acceptance</t>
@@ -32,10 +32,10 @@
     <t>Accès et partage des avantages du Mécanisme d'échange d'informations.</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/access-and-benefit-sharing</t>
-  </si>
-  <si>
-    <t>http://leo.informea.org/terms/clearing-house-mechanism</t>
+    <t>http://www.informea.org/terms/access-and-benefit-sharing</t>
+  </si>
+  <si>
+    <t>http://www.informea.org/terms/clearing-house-mechanism</t>
   </si>
   <si>
     <t>access and benefit sharing</t>
@@ -50,7 +50,7 @@
     <t>Access to genetic resources</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/access-genetic-resources</t>
+    <t>http://www.informea.org/terms/access-genetic-resources</t>
   </si>
   <si>
     <t>access to genetic resources</t>
@@ -59,7 +59,7 @@
     <t>Access to Information</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/access-information</t>
+    <t>http://www.informea.org/terms/access-information</t>
   </si>
   <si>
     <t>access to information</t>
@@ -68,10 +68,10 @@
     <t>Access to Information, Access to Justice and Public Participation (Rio Principle 10)</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/access-justice</t>
-  </si>
-  <si>
-    <t>http://leo.informea.org/terms/public-participation</t>
+    <t>http://www.informea.org/terms/access-justice</t>
+  </si>
+  <si>
+    <t>http://www.informea.org/terms/public-participation</t>
   </si>
   <si>
     <t>access to justice</t>
@@ -80,7 +80,7 @@
     <t>Access to Information{{;}} Access to Justice and Public Participation (Rio Principle 10)</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/accession</t>
+    <t>http://www.informea.org/terms/accession</t>
   </si>
   <si>
     <t>accession</t>
@@ -89,7 +89,7 @@
     <t>Access to Justice</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/acid-precipitation</t>
+    <t>http://www.informea.org/terms/acid-precipitation</t>
   </si>
   <si>
     <t>acid precipitation</t>
@@ -104,13 +104,13 @@
     <t>Adaptation</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/adaptation</t>
+    <t>http://www.informea.org/terms/adaptation</t>
   </si>
   <si>
     <t>adaptation fund</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/adaptation-fund</t>
+    <t>http://www.informea.org/terms/adaptation-fund</t>
   </si>
   <si>
     <t>additionality</t>
@@ -119,7 +119,7 @@
     <t>Adaptation Fund</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/additionality</t>
+    <t>http://www.informea.org/terms/additionality</t>
   </si>
   <si>
     <t>adoption</t>
@@ -128,7 +128,7 @@
     <t>Additionality</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/adoption</t>
+    <t>http://www.informea.org/terms/adoption</t>
   </si>
   <si>
     <t>adverse effect</t>
@@ -137,10 +137,10 @@
     <t>Adjustment Procedure</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/amendment-procedures</t>
-  </si>
-  <si>
-    <t>http://leo.informea.org/terms/adverse-effect</t>
+    <t>http://www.informea.org/terms/amendment-procedures</t>
+  </si>
+  <si>
+    <t>http://www.informea.org/terms/adverse-effect</t>
   </si>
   <si>
     <t>advisory body</t>
@@ -149,37 +149,37 @@
     <t>Afforestation and Reforestation</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/afforestation</t>
-  </si>
-  <si>
-    <t>http://leo.informea.org/terms/reforestation</t>
+    <t>http://www.informea.org/terms/afforestation</t>
+  </si>
+  <si>
+    <t>http://www.informea.org/terms/reforestation</t>
   </si>
   <si>
     <t>Agriculture</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/agriculture</t>
+    <t>http://www.informea.org/terms/agriculture</t>
   </si>
   <si>
     <t>Aichi Biodiversity Targets</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/global-strategy</t>
+    <t>http://www.informea.org/terms/global-strategy</t>
   </si>
   <si>
     <t>Air Pollution and Air Quality</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/air-pollution</t>
-  </si>
-  <si>
-    <t>http://leo.informea.org/terms/air-quality</t>
+    <t>http://www.informea.org/terms/air-pollution</t>
+  </si>
+  <si>
+    <t>http://www.informea.org/terms/air-quality</t>
   </si>
   <si>
     <t>Alien species</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/alien-species</t>
+    <t>http://www.informea.org/terms/alien-species</t>
   </si>
   <si>
     <t>agrobiodiversity</t>
@@ -188,7 +188,7 @@
     <t>Alternatives and Substitutes</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/alternative-substance</t>
+    <t>http://www.informea.org/terms/alternative-substance</t>
   </si>
   <si>
     <t>agro-ecosystem</t>
@@ -203,7 +203,7 @@
     <t>Annex, List or Inventory</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/annex</t>
+    <t>http://www.informea.org/terms/annex</t>
   </si>
   <si>
     <t>agroindustry</t>
@@ -218,7 +218,7 @@
     <t>Approval</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/approval</t>
+    <t>http://www.informea.org/terms/approval</t>
   </si>
   <si>
     <t>air pollution (non-stationary sources)</t>
@@ -227,7 +227,7 @@
     <t>Arbitration</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/dispute-settlement</t>
+    <t>http://www.informea.org/terms/dispute-settlement</t>
   </si>
   <si>
     <t>air pollution (stationary sources)</t>
@@ -236,10 +236,10 @@
     <t>Assessment</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/environmental-impact-assessment</t>
-  </si>
-  <si>
-    <t>http://leo.informea.org/terms/risk-assessment</t>
+    <t>http://www.informea.org/terms/environmental-impact-assessment</t>
+  </si>
+  <si>
+    <t>http://www.informea.org/terms/risk-assessment</t>
   </si>
   <si>
     <t>air quality</t>
@@ -248,7 +248,7 @@
     <t>Assistance</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/capacity-building</t>
+    <t>http://www.informea.org/terms/capacity-building</t>
   </si>
   <si>
     <t>air quality standard</t>
@@ -257,7 +257,7 @@
     <t>Benefit Sharing Mech</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/benefit-sharing</t>
+    <t>http://www.informea.org/terms/benefit-sharing</t>
   </si>
   <si>
     <t>alien species</t>
@@ -272,10 +272,10 @@
     <t>Best Available Technology and Best Practice</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/best-practice</t>
-  </si>
-  <si>
-    <t>http://leo.informea.org/terms/technology-transfer</t>
+    <t>http://www.informea.org/terms/best-practice</t>
+  </si>
+  <si>
+    <t>http://www.informea.org/terms/technology-transfer</t>
   </si>
   <si>
     <t>amendment</t>
@@ -284,13 +284,13 @@
     <t>Biodegradation</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms#c_c4864204</t>
+    <t>http://www.informea.org/terms#c_c4864204</t>
   </si>
   <si>
     <t>Biologic diversity</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/biodiversity</t>
+    <t>http://www.informea.org/terms/biodiversity</t>
   </si>
   <si>
     <t>amendment procedures</t>
@@ -305,7 +305,7 @@
     <t>Biosafety</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/biosafety</t>
+    <t>http://www.informea.org/terms/biosafety</t>
   </si>
   <si>
     <t>appendix</t>
@@ -320,7 +320,7 @@
     <t>Biotechnologie</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/biotechnology</t>
+    <t>http://www.informea.org/terms/biotechnology</t>
   </si>
   <si>
     <t>approval</t>
@@ -335,10 +335,10 @@
     <t>Budget (MEA Secretariat)</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/budget</t>
-  </si>
-  <si>
-    <t>http://leo.informea.org/terms/secretariat</t>
+    <t>http://www.informea.org/terms/budget</t>
+  </si>
+  <si>
+    <t>http://www.informea.org/terms/secretariat</t>
   </si>
   <si>
     <t>area beyond national jurisdiction</t>
@@ -347,7 +347,7 @@
     <t>Bureau</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms#c_f1aef8f8</t>
+    <t>http://www.informea.org/terms#c_f1aef8f8</t>
   </si>
   <si>
     <t>arid ecosystem</t>
@@ -362,7 +362,7 @@
     <t>Captive Breeding</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/captive-breeding</t>
+    <t>http://www.informea.org/terms/captive-breeding</t>
   </si>
   <si>
     <t>artisanal fishery</t>
@@ -377,7 +377,7 @@
     <t>Changement climatique</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/climate-change</t>
+    <t>http://www.informea.org/terms/climate-change</t>
   </si>
   <si>
     <t>atmospheric ozone</t>
@@ -386,7 +386,7 @@
     <t>Characterization, evaluation and utilization</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/evaluation</t>
+    <t>http://www.informea.org/terms/evaluation</t>
   </si>
   <si>
     <t>ballast water</t>
@@ -395,10 +395,10 @@
     <t>Chemical Review Committee</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/committee</t>
-  </si>
-  <si>
-    <t>http://leo.informea.org/terms/chemical</t>
+    <t>http://www.informea.org/terms/committee</t>
+  </si>
+  <si>
+    <t>http://www.informea.org/terms/chemical</t>
   </si>
   <si>
     <t>benefit sharing</t>
@@ -407,7 +407,7 @@
     <t>Chemicals &amp; Waste management</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/waste-management</t>
+    <t>http://www.informea.org/terms/waste-management</t>
   </si>
   <si>
     <t>best practice</t>
@@ -416,7 +416,7 @@
     <t>Chemicals and Pesticides</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/pesticide</t>
+    <t>http://www.informea.org/terms/pesticide</t>
   </si>
   <si>
     <t>bilateral agreement</t>
@@ -431,7 +431,7 @@
     <t>Clean Development Mechanism</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/clean-development-mechanism</t>
+    <t>http://www.informea.org/terms/clean-development-mechanism</t>
   </si>
   <si>
     <t>biocide</t>
@@ -458,7 +458,7 @@
     <t>Common but differentiated responsbilities (Rio Principle 7)</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/common-differentiated-responsibilities</t>
+    <t>http://www.informea.org/terms/common-differentiated-responsibilities</t>
   </si>
   <si>
     <t>biodiversity offset</t>
@@ -467,7 +467,7 @@
     <t>Communautés locales</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/indigenous-people</t>
+    <t>http://www.informea.org/terms/indigenous-people</t>
   </si>
   <si>
     <t>biofuel</t>
@@ -476,7 +476,7 @@
     <t>Competent Authority</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/national-focal-point</t>
+    <t>http://www.informea.org/terms/national-focal-point</t>
   </si>
   <si>
     <t>biological contamination</t>
@@ -485,10 +485,10 @@
     <t>Compliance and Enforcement</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/compliance</t>
-  </si>
-  <si>
-    <t>http://leo.informea.org/terms/enforcement</t>
+    <t>http://www.informea.org/terms/compliance</t>
+  </si>
+  <si>
+    <t>http://www.informea.org/terms/enforcement</t>
   </si>
   <si>
     <t>biomass</t>
@@ -503,7 +503,7 @@
     <t>Conference of the Parties (COP)</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/conference-parties</t>
+    <t>http://www.informea.org/terms/conference-parties</t>
   </si>
   <si>
     <t>bioprospecting</t>
@@ -512,7 +512,7 @@
     <t>Conservation</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/conservation</t>
+    <t>http://www.informea.org/terms/conservation</t>
   </si>
   <si>
     <t>biosafety</t>
@@ -533,7 +533,7 @@
     <t>Cooperation and Coordination (amongst MEAs) and Synergies</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/synergy</t>
+    <t>http://www.informea.org/terms/synergy</t>
   </si>
   <si>
     <t>biotechnology</t>
@@ -542,7 +542,7 @@
     <t>Cultural and natural heritage</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/cultural-heritage</t>
+    <t>http://www.informea.org/terms/cultural-heritage</t>
   </si>
   <si>
     <t>black carbon</t>
@@ -551,7 +551,7 @@
     <t>Customs</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/customs</t>
+    <t>http://www.informea.org/terms/customs</t>
   </si>
   <si>
     <t>breeders' right</t>
@@ -560,7 +560,7 @@
     <t>De-listing</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/de-listing</t>
+    <t>http://www.informea.org/terms/de-listing</t>
   </si>
   <si>
     <t>budget</t>
@@ -569,7 +569,7 @@
     <t>Decision</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/decision</t>
+    <t>http://www.informea.org/terms/decision</t>
   </si>
   <si>
     <t>by-catch</t>
@@ -578,7 +578,7 @@
     <t>Depositary</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/depository</t>
+    <t>http://www.informea.org/terms/depository</t>
   </si>
   <si>
     <t>by-product</t>
@@ -587,7 +587,7 @@
     <t>Derivative</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/derivative</t>
+    <t>http://www.informea.org/terms/derivative</t>
   </si>
   <si>
     <t>candidate chemical</t>
@@ -596,7 +596,7 @@
     <t>Desertification</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/desertification</t>
+    <t>http://www.informea.org/terms/desertification</t>
   </si>
   <si>
     <t>capacity building</t>
@@ -605,7 +605,7 @@
     <t>Developed Countries</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/developed-country</t>
+    <t>http://www.informea.org/terms/developed-country</t>
   </si>
   <si>
     <t>captive breeding</t>
@@ -614,7 +614,7 @@
     <t>Developing Countries</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/developing-country</t>
+    <t>http://www.informea.org/terms/developing-country</t>
   </si>
   <si>
     <t>carbon storage</t>
@@ -623,10 +623,10 @@
     <t>Disposal</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/waste-disposal</t>
-  </si>
-  <si>
-    <t>http://leo.informea.org/terms/hazardous-waste</t>
+    <t>http://www.informea.org/terms/waste-disposal</t>
+  </si>
+  <si>
+    <t>http://www.informea.org/terms/hazardous-waste</t>
   </si>
   <si>
     <t>certification</t>
@@ -641,7 +641,7 @@
     <t>Drought</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/drought</t>
+    <t>http://www.informea.org/terms/drought</t>
   </si>
   <si>
     <t>chemical engineering</t>
@@ -650,7 +650,7 @@
     <t>Dumping</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/ship-based-marine-pollution</t>
+    <t>http://www.informea.org/terms/ship-based-marine-pollution</t>
   </si>
   <si>
     <t>clean development mechanism</t>
@@ -659,7 +659,7 @@
     <t>Early Warning Systems</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/early-warning-system</t>
+    <t>http://www.informea.org/terms/early-warning-system</t>
   </si>
   <si>
     <t>cleaner production</t>
@@ -674,7 +674,7 @@
     <t>Échange de droits d'émission</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/emissions-trading</t>
+    <t>http://www.informea.org/terms/emissions-trading</t>
   </si>
   <si>
     <t>climate change</t>
@@ -683,7 +683,7 @@
     <t>Ecological Character</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/ecological-character</t>
+    <t>http://www.informea.org/terms/ecological-character</t>
   </si>
   <si>
     <t>climate change adaptation</t>
@@ -692,7 +692,7 @@
     <t>Economic Instruments</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/economic-instrument</t>
+    <t>http://www.informea.org/terms/economic-instrument</t>
   </si>
   <si>
     <t>climate change mitigation</t>
@@ -701,7 +701,7 @@
     <t>Economies in Transition</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/economy-transition</t>
+    <t>http://www.informea.org/terms/economy-transition</t>
   </si>
   <si>
     <t>coastal biodiversity</t>
@@ -710,7 +710,7 @@
     <t>Ecosystems</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/ecosystem</t>
+    <t>http://www.informea.org/terms/ecosystem</t>
   </si>
   <si>
     <t>coastal ecosystem</t>
@@ -719,7 +719,7 @@
     <t>Ecosystems Services</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/ecosystem-service</t>
+    <t>http://www.informea.org/terms/ecosystem-service</t>
   </si>
   <si>
     <t>coastal wetland</t>
@@ -740,7 +740,7 @@
     <t>Emergencies and Incidents</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/disaster</t>
+    <t>http://www.informea.org/terms/disaster</t>
   </si>
   <si>
     <t>commercial fishery</t>
@@ -755,10 +755,10 @@
     <t>Émissions de carbone</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/emission</t>
-  </si>
-  <si>
-    <t>http://leo.informea.org/terms/black-carbon</t>
+    <t>http://www.informea.org/terms/emission</t>
+  </si>
+  <si>
+    <t>http://www.informea.org/terms/black-carbon</t>
   </si>
   <si>
     <t>committee of the whole</t>
@@ -767,7 +767,7 @@
     <t>Endangered Species</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/endangered-species</t>
+    <t>http://www.informea.org/terms/endangered-species</t>
   </si>
   <si>
     <t>common but differentiated responsibilities</t>
@@ -776,7 +776,7 @@
     <t>Entry into force</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/entry-force</t>
+    <t>http://www.informea.org/terms/entry-force</t>
   </si>
   <si>
     <t>common heritage of mankind</t>
@@ -785,7 +785,7 @@
     <t>Environmental Damage</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/environmental-damage</t>
+    <t>http://www.informea.org/terms/environmental-damage</t>
   </si>
   <si>
     <t>compensation</t>
@@ -800,7 +800,7 @@
     <t>Environmentally Sound Management</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/sound-environmental-management</t>
+    <t>http://www.informea.org/terms/sound-environmental-management</t>
   </si>
   <si>
     <t>compliance committee</t>
@@ -809,7 +809,7 @@
     <t>Erosion</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/erosion</t>
+    <t>http://www.informea.org/terms/erosion</t>
   </si>
   <si>
     <t>Conference of the Parties</t>
@@ -824,7 +824,7 @@
     <t>Étiquetage et manutention</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/labelling</t>
+    <t>http://www.informea.org/terms/labelling</t>
   </si>
   <si>
     <t>conservation</t>
@@ -833,7 +833,7 @@
     <t>ex situ</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/ex-situ-conservation</t>
+    <t>http://www.informea.org/terms/ex-situ-conservation</t>
   </si>
   <si>
     <t>conservation of habitat</t>
@@ -842,7 +842,7 @@
     <t>Exemptions</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/exemption</t>
+    <t>http://www.informea.org/terms/exemption</t>
   </si>
   <si>
     <t>conservation status</t>
@@ -851,7 +851,7 @@
     <t>Experts</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/advisory-body</t>
+    <t>http://www.informea.org/terms/advisory-body</t>
   </si>
   <si>
     <t>constitutional law</t>
@@ -860,13 +860,13 @@
     <t>Exploration and Exploitation of Continental Shelf and Seabed</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/continental-shelf</t>
-  </si>
-  <si>
-    <t>http://leo.informea.org/terms/deep-sea-bed</t>
-  </si>
-  <si>
-    <t>http://leo.informea.org/terms/bioprospecting</t>
+    <t>http://www.informea.org/terms/continental-shelf</t>
+  </si>
+  <si>
+    <t>http://www.informea.org/terms/deep-sea-bed</t>
+  </si>
+  <si>
+    <t>http://www.informea.org/terms/bioprospecting</t>
   </si>
   <si>
     <t>contiguous zone</t>
@@ -875,7 +875,7 @@
     <t>Export</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/export</t>
+    <t>http://www.informea.org/terms/export</t>
   </si>
   <si>
     <t>continental shelf</t>
@@ -884,7 +884,7 @@
     <t>Extraordinary Conference of the Parties</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/extraordinary-conference-parties</t>
+    <t>http://www.informea.org/terms/extraordinary-conference-parties</t>
   </si>
   <si>
     <t>cooperative farming</t>
@@ -893,7 +893,7 @@
     <t>Farmers' Rights</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/breeder's-right</t>
+    <t>http://www.informea.org/terms/breeder's-right</t>
   </si>
   <si>
     <t>co-processing</t>
@@ -908,7 +908,7 @@
     <t>Financial Mechanism</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/financial-mechanism</t>
+    <t>http://www.informea.org/terms/financial-mechanism</t>
   </si>
   <si>
     <t>cost-benefit analysis</t>
@@ -941,7 +941,7 @@
     <t>Flexible mechanisms</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/kyoto-mechanism</t>
+    <t>http://www.informea.org/terms/kyoto-mechanism</t>
   </si>
   <si>
     <t>decision</t>
@@ -956,7 +956,7 @@
     <t>Food Security</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/food-security</t>
+    <t>http://www.informea.org/terms/food-security</t>
   </si>
   <si>
     <t>decontamination</t>
@@ -965,7 +965,7 @@
     <t>Forest Biodiversity</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/forest-biodiversity</t>
+    <t>http://www.informea.org/terms/forest-biodiversity</t>
   </si>
   <si>
     <t>deep sea bed</t>
@@ -974,7 +974,7 @@
     <t>further protective measures</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/implementation</t>
+    <t>http://www.informea.org/terms/implementation</t>
   </si>
   <si>
     <t>deforestation</t>
@@ -983,7 +983,7 @@
     <t>Gender</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/gender</t>
+    <t>http://www.informea.org/terms/gender</t>
   </si>
   <si>
     <t>de-listing</t>
@@ -992,7 +992,7 @@
     <t>Genetic Resources</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/genetic-resource</t>
+    <t>http://www.informea.org/terms/genetic-resource</t>
   </si>
   <si>
     <t>depository</t>
@@ -1007,7 +1007,7 @@
     <t>Governing Body</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/governing-body</t>
+    <t>http://www.informea.org/terms/governing-body</t>
   </si>
   <si>
     <t>desert</t>
@@ -1016,7 +1016,7 @@
     <t>Greenhouse Gas</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/greenhouse-gas</t>
+    <t>http://www.informea.org/terms/greenhouse-gas</t>
   </si>
   <si>
     <t>desertification</t>
@@ -1025,7 +1025,7 @@
     <t>Habitat</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/habitat</t>
+    <t>http://www.informea.org/terms/habitat</t>
   </si>
   <si>
     <t>detergent</t>
@@ -1040,7 +1040,7 @@
     <t>Human Health</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/health</t>
+    <t>http://www.informea.org/terms/health</t>
   </si>
   <si>
     <t>developing country</t>
@@ -1055,7 +1055,7 @@
     <t>Illegal Transboundary Movement</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/illegal-trade</t>
+    <t>http://www.informea.org/terms/illegal-trade</t>
   </si>
   <si>
     <t>dioxin</t>
@@ -1070,7 +1070,7 @@
     <t>Import</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/import</t>
+    <t>http://www.informea.org/terms/import</t>
   </si>
   <si>
     <t>dispute settlement</t>
@@ -1079,7 +1079,7 @@
     <t>In Danger (List of World Heritage in Danger)</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/protected-area</t>
+    <t>http://www.informea.org/terms/protected-area</t>
   </si>
   <si>
     <t>domestic trade</t>
@@ -1088,7 +1088,7 @@
     <t>in situ</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/situ-conservation</t>
+    <t>http://www.informea.org/terms/situ-conservation</t>
   </si>
   <si>
     <t>domestic waste</t>
@@ -1103,7 +1103,7 @@
     <t>Incineration</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/waste-incineration</t>
+    <t>http://www.informea.org/terms/waste-incineration</t>
   </si>
   <si>
     <t>drift net fishing</t>
@@ -1124,7 +1124,7 @@
     <t>Inland waters</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/inland-water</t>
+    <t>http://www.informea.org/terms/inland-water</t>
   </si>
   <si>
     <t>dry farming</t>
@@ -1133,7 +1133,7 @@
     <t>Integrated Ecosystems Management</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/ecosystem-management</t>
+    <t>http://www.informea.org/terms/ecosystem-management</t>
   </si>
   <si>
     <t>dryland</t>
@@ -1142,7 +1142,7 @@
     <t>Intellectual Property</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/intellectual-property-right</t>
+    <t>http://www.informea.org/terms/intellectual-property-right</t>
   </si>
   <si>
     <t>early warning system</t>
@@ -1151,7 +1151,7 @@
     <t>Intergenerational Equity Principle (Rio Principle 3)</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/intergenerational-equity</t>
+    <t>http://www.informea.org/terms/intergenerational-equity</t>
   </si>
   <si>
     <t>easement</t>
@@ -1160,7 +1160,7 @@
     <t>International Cooperation and Coordination</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/international-cooperation</t>
+    <t>http://www.informea.org/terms/international-cooperation</t>
   </si>
   <si>
     <t>ecolabel</t>
@@ -1175,7 +1175,7 @@
     <t>Introduction from the sea</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/introduction-sea</t>
+    <t>http://www.informea.org/terms/introduction-sea</t>
   </si>
   <si>
     <t>economic instrument</t>
@@ -1184,7 +1184,7 @@
     <t>Invasive Alien Species</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/invasive-species</t>
+    <t>http://www.informea.org/terms/invasive-species</t>
   </si>
   <si>
     <t>economy</t>
@@ -1193,7 +1193,7 @@
     <t>Joint Implementation</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/joint-implementation</t>
+    <t>http://www.informea.org/terms/joint-implementation</t>
   </si>
   <si>
     <t>economy in transition</t>
@@ -1202,10 +1202,10 @@
     <t>Land and Land Degradation</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/land</t>
-  </si>
-  <si>
-    <t>http://leo.informea.org/terms/land-degradation</t>
+    <t>http://www.informea.org/terms/land</t>
+  </si>
+  <si>
+    <t>http://www.informea.org/terms/land-degradation</t>
   </si>
   <si>
     <t>ecosystem</t>
@@ -1214,7 +1214,7 @@
     <t>Land Use and Land Use Change and Forestry (LULUCF)</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/lulucf</t>
+    <t>http://www.informea.org/terms/lulucf</t>
   </si>
   <si>
     <t>ecosystem approach</t>
@@ -1223,7 +1223,7 @@
     <t>Land-Based Sources of Pollution</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/land-based-marine-pollution</t>
+    <t>http://www.informea.org/terms/land-based-marine-pollution</t>
   </si>
   <si>
     <t>ecosystem management</t>
@@ -1232,7 +1232,7 @@
     <t>Least Developed Country Parties</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/least-developed-country</t>
+    <t>http://www.informea.org/terms/least-developed-country</t>
   </si>
   <si>
     <t>ecosystem preservation</t>
@@ -1241,7 +1241,7 @@
     <t>Liability (Rio Principle 13)</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/liability</t>
+    <t>http://www.informea.org/terms/liability</t>
   </si>
   <si>
     <t>ecosystem restoration</t>
@@ -1256,7 +1256,7 @@
     <t>Listing or Amendments to Annexes</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/amendment</t>
+    <t>http://www.informea.org/terms/amendment</t>
   </si>
   <si>
     <t>ecotourism</t>
@@ -1265,7 +1265,7 @@
     <t>Living modified organisms - LMOs</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/living-modified-organism</t>
+    <t>http://www.informea.org/terms/living-modified-organism</t>
   </si>
   <si>
     <t>ecotoxicity</t>
@@ -1280,7 +1280,7 @@
     <t>Local Government</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/local-administration</t>
+    <t>http://www.informea.org/terms/local-administration</t>
   </si>
   <si>
     <t>electronic waste</t>
@@ -1289,7 +1289,7 @@
     <t>Marine and Coastal Wetlands</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/coastal-wetland</t>
+    <t>http://www.informea.org/terms/coastal-wetland</t>
   </si>
   <si>
     <t>emission</t>
@@ -1298,10 +1298,10 @@
     <t>Marine Environment and Marine and Coastal Biodiversity</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/marine-biodiversity</t>
-  </si>
-  <si>
-    <t>http://leo.informea.org/terms/coastal-biodiversity</t>
+    <t>http://www.informea.org/terms/marine-biodiversity</t>
+  </si>
+  <si>
+    <t>http://www.informea.org/terms/coastal-biodiversity</t>
   </si>
   <si>
     <t>emission reduction</t>
@@ -1310,7 +1310,7 @@
     <t>Marine Protected Areas</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/marine-protected-area</t>
+    <t>http://www.informea.org/terms/marine-protected-area</t>
   </si>
   <si>
     <t>emission standard</t>
@@ -1337,16 +1337,13 @@
     <t>Microorganisms</t>
   </si>
   <si>
-    <t>http://www.informea.org/terms#c_c4864204</t>
-  </si>
-  <si>
     <t>enforcement</t>
   </si>
   <si>
     <t>Migratory species</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/migratory-species</t>
+    <t>http://www.informea.org/terms/migratory-species</t>
   </si>
   <si>
     <t>entomology</t>
@@ -1355,7 +1352,7 @@
     <t>Mitigation</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/climate-change-mitigation</t>
+    <t>http://www.informea.org/terms/climate-change-mitigation</t>
   </si>
   <si>
     <t>entry into force</t>
@@ -1364,7 +1361,7 @@
     <t>Monitoring, Assessment and Evaluation</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/monitoring</t>
+    <t>http://www.informea.org/terms/monitoring</t>
   </si>
   <si>
     <t>environmental crime</t>
@@ -1373,7 +1370,7 @@
     <t>Mountain Biodiversity</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/mountain-biodiversity</t>
+    <t>http://www.informea.org/terms/mountain-biodiversity</t>
   </si>
   <si>
     <t>environmental damage</t>
@@ -1388,7 +1385,7 @@
     <t>Multilateral System</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/multilateral-system</t>
+    <t>http://www.informea.org/terms/multilateral-system</t>
   </si>
   <si>
     <t>environmental governance</t>
@@ -1397,7 +1394,7 @@
     <t>Mutually Agreed Terms</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/mutually-agreed-term</t>
+    <t>http://www.informea.org/terms/mutually-agreed-term</t>
   </si>
   <si>
     <t>environmental impact assessment</t>
@@ -1406,7 +1403,7 @@
     <t>National Action Plans</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/national-strategy</t>
+    <t>http://www.informea.org/terms/national-strategy</t>
   </si>
   <si>
     <t>environmental indicator</t>
@@ -1451,7 +1448,7 @@
     <t>National Regulation and Legislation</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/national-legislation</t>
+    <t>http://www.informea.org/terms/national-legislation</t>
   </si>
   <si>
     <t>estuary</t>
@@ -1460,7 +1457,7 @@
     <t>National Reporting</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/national-report</t>
+    <t>http://www.informea.org/terms/national-report</t>
   </si>
   <si>
     <t>eutrophication</t>
@@ -1481,7 +1478,7 @@
     <t>Non-detriment finding</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/non-detriment-finding</t>
+    <t>http://www.informea.org/terms/non-detriment-finding</t>
   </si>
   <si>
     <t>exemption</t>
@@ -1490,7 +1487,7 @@
     <t>Non-Governmental Organisation(s)</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/non-governmental-organization</t>
+    <t>http://www.informea.org/terms/non-governmental-organization</t>
   </si>
   <si>
     <t>export</t>
@@ -1499,7 +1496,7 @@
     <t>Non-Party</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/non-party</t>
+    <t>http://www.informea.org/terms/non-party</t>
   </si>
   <si>
     <t>exposure</t>
@@ -1508,7 +1505,7 @@
     <t>Notification Obligation (Rio Principle 18)</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/notification-obligation</t>
+    <t>http://www.informea.org/terms/notification-obligation</t>
   </si>
   <si>
     <t>ex-situ conservation</t>
@@ -1523,7 +1520,7 @@
     <t>Observers (Requests for Observer Status)</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/observer</t>
+    <t>http://www.informea.org/terms/observer</t>
   </si>
   <si>
     <t>fee</t>
@@ -1532,7 +1529,7 @@
     <t>Organisme génétiquement modifié</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/genetically-modified-organism</t>
+    <t>http://www.informea.org/terms/genetically-modified-organism</t>
   </si>
   <si>
     <t>fertilizer</t>
@@ -1553,7 +1550,7 @@
     <t>Ozone Depleting Potential</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/ozone-depleting-potential</t>
+    <t>http://www.informea.org/terms/ozone-depleting-potential</t>
   </si>
   <si>
     <t>fishery</t>
@@ -1562,7 +1559,7 @@
     <t>Ozone Layer</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/ozone-layer-depletion</t>
+    <t>http://www.informea.org/terms/ozone-layer-depletion</t>
   </si>
   <si>
     <t>fishing licence</t>
@@ -1583,7 +1580,7 @@
     <t>Parties, Institutional frameworks and Procedures</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/rules-procedure</t>
+    <t>http://www.informea.org/terms/rules-procedure</t>
   </si>
   <si>
     <t>flame retardant</t>
@@ -1598,7 +1595,7 @@
     <t>Party</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/party</t>
+    <t>http://www.informea.org/terms/party</t>
   </si>
   <si>
     <t>food</t>
@@ -1613,7 +1610,7 @@
     <t>Permits and Certificates</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/permit</t>
+    <t>http://www.informea.org/terms/permit</t>
   </si>
   <si>
     <t>food chain</t>
@@ -1622,7 +1619,7 @@
     <t>Persistent Organic Pollutants (POPs)</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/persistent-organic-pollutant</t>
+    <t>http://www.informea.org/terms/persistent-organic-pollutant</t>
   </si>
   <si>
     <t>food quality control</t>
@@ -1631,10 +1628,10 @@
     <t>Plant Genetic Resources and Agricultural Biodiversity</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/plant-genetic-resource</t>
-  </si>
-  <si>
-    <t>http://leo.informea.org/terms/genetic-resource-for-food-and-agriculture</t>
+    <t>http://www.informea.org/terms/plant-genetic-resource</t>
+  </si>
+  <si>
+    <t>http://www.informea.org/terms/genetic-resource-for-food-and-agriculture</t>
   </si>
   <si>
     <t>food safety</t>
@@ -1643,7 +1640,7 @@
     <t>Polluter Pays Principle (Rio Principle 16)</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/polluter-pays-principle</t>
+    <t>http://www.informea.org/terms/polluter-pays-principle</t>
   </si>
   <si>
     <t>food security</t>
@@ -1652,7 +1649,7 @@
     <t>Pollution</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/pollution</t>
+    <t>http://www.informea.org/terms/pollution</t>
   </si>
   <si>
     <t>food shortage</t>
@@ -1679,7 +1676,7 @@
     <t>Poverty Alleviation</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/poverty</t>
+    <t>http://www.informea.org/terms/poverty</t>
   </si>
   <si>
     <t>forest management</t>
@@ -1688,7 +1685,7 @@
     <t>Preventive Principle (Rio Principle 2)</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/prevention</t>
+    <t>http://www.informea.org/terms/prevention</t>
   </si>
   <si>
     <t>fracturing</t>
@@ -1703,7 +1700,7 @@
     <t>Principle of Precautionary Approach (Rio Principle 15)</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/precautionary-principle</t>
+    <t>http://www.informea.org/terms/precautionary-principle</t>
   </si>
   <si>
     <t>fund</t>
@@ -1712,7 +1709,7 @@
     <t>Prior Informed Consent (PIC) and Advanced Informed Agreement (AIA)</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/prior-informed-consent</t>
+    <t>http://www.informea.org/terms/prior-informed-consent</t>
   </si>
   <si>
     <t>fungicide</t>
@@ -1721,10 +1718,10 @@
     <t>Private Sector and Commerce</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/private-sector</t>
-  </si>
-  <si>
-    <t>http://leo.informea.org/terms/trade</t>
+    <t>http://www.informea.org/terms/private-sector</t>
+  </si>
+  <si>
+    <t>http://www.informea.org/terms/trade</t>
   </si>
   <si>
     <t>furan</t>
@@ -1757,7 +1754,7 @@
     <t>Protocol</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/protocol</t>
+    <t>http://www.informea.org/terms/protocol</t>
   </si>
   <si>
     <t>genetically modified organism</t>
@@ -1766,7 +1763,7 @@
     <t>Public Awareness</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/public-awareness</t>
+    <t>http://www.informea.org/terms/public-awareness</t>
   </si>
   <si>
     <t>geoengineering</t>
@@ -1781,7 +1778,7 @@
     <t>Range States</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/range-state</t>
+    <t>http://www.informea.org/terms/range-state</t>
   </si>
   <si>
     <t>glacier</t>
@@ -1790,7 +1787,7 @@
     <t>Ratification</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/ratification</t>
+    <t>http://www.informea.org/terms/ratification</t>
   </si>
   <si>
     <t>global strategy</t>
@@ -1799,7 +1796,7 @@
     <t>Recommendation</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/recommendation</t>
+    <t>http://www.informea.org/terms/recommendation</t>
   </si>
   <si>
     <t>governing body</t>
@@ -1808,7 +1805,7 @@
     <t>Redress and Compensation</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/compensation</t>
+    <t>http://www.informea.org/terms/compensation</t>
   </si>
   <si>
     <t>green economy</t>
@@ -1826,7 +1823,7 @@
     <t>groundwater</t>
   </si>
   <si>
-    <t>Rejet en mer </t>
+    <t>Rejet en mer</t>
   </si>
   <si>
     <t>habitat</t>
@@ -1841,7 +1838,7 @@
     <t>Renewable Energy</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/renewable-energy</t>
+    <t>http://www.informea.org/terms/renewable-energy</t>
   </si>
   <si>
     <t>hazardous waste</t>
@@ -1850,7 +1847,7 @@
     <t>Research and Development</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/research</t>
+    <t>http://www.informea.org/terms/research</t>
   </si>
   <si>
     <t>health</t>
@@ -1859,7 +1856,7 @@
     <t>Reservations</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/reservation</t>
+    <t>http://www.informea.org/terms/reservation</t>
   </si>
   <si>
     <t>heavy metal</t>
@@ -1868,7 +1865,7 @@
     <t>Resolution</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/resolution</t>
+    <t>http://www.informea.org/terms/resolution</t>
   </si>
   <si>
     <t>herbicide</t>
@@ -1913,7 +1910,7 @@
     <t>Risk Management</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/risk-management</t>
+    <t>http://www.informea.org/terms/risk-management</t>
   </si>
   <si>
     <t>illegal logging</t>
@@ -1934,7 +1931,7 @@
     <t>SBBSTA (Subsidiary Body for Scientific and Technological Advice)</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/subsidiary-body</t>
+    <t>http://www.informea.org/terms/subsidiary-body</t>
   </si>
   <si>
     <t>import</t>
@@ -1973,10 +1970,10 @@
     <t>Semi-Arid and Dry Sub-Humid Areas</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/sub-humid-ecosystem</t>
-  </si>
-  <si>
-    <t>http://leo.informea.org/terms/semi-arid-ecosystem</t>
+    <t>http://www.informea.org/terms/sub-humid-ecosystem</t>
+  </si>
+  <si>
+    <t>http://www.informea.org/terms/semi-arid-ecosystem</t>
   </si>
   <si>
     <t>industrial chemical</t>
@@ -1991,7 +1988,7 @@
     <t>Signature</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/signature</t>
+    <t>http://www.informea.org/terms/signature</t>
   </si>
   <si>
     <t>inland water</t>
@@ -2000,7 +1997,7 @@
     <t>Sinks and Reservoirs</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/carbon-storage</t>
+    <t>http://www.informea.org/terms/carbon-storage</t>
   </si>
   <si>
     <t>inland wetland</t>
@@ -2021,7 +2018,7 @@
     <t>Small Island Developing Countries</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/small-island-developing-country</t>
+    <t>http://www.informea.org/terms/small-island-developing-country</t>
   </si>
   <si>
     <t>institution building</t>
@@ -2036,7 +2033,7 @@
     <t>Socio-economic consideration</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/economy</t>
+    <t>http://www.informea.org/terms/economy</t>
   </si>
   <si>
     <t>intensive farming</t>
@@ -2045,7 +2042,7 @@
     <t>Soil</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/soil</t>
+    <t>http://www.informea.org/terms/soil</t>
   </si>
   <si>
     <t>intergenerational equity</t>
@@ -2066,7 +2063,7 @@
     <t>Special Funds</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/fund</t>
+    <t>http://www.informea.org/terms/fund</t>
   </si>
   <si>
     <t>international cooperation</t>
@@ -2075,7 +2072,7 @@
     <t>Special situation and needs of the vulnerable</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/vulnerability</t>
+    <t>http://www.informea.org/terms/vulnerability</t>
   </si>
   <si>
     <t>international organization</t>
@@ -2084,7 +2081,7 @@
     <t>Species</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/species</t>
+    <t>http://www.informea.org/terms/species</t>
   </si>
   <si>
     <t>international watercourse</t>
@@ -2099,7 +2096,7 @@
     <t>State Sovereignty</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/sovereignty</t>
+    <t>http://www.informea.org/terms/sovereignty</t>
   </si>
   <si>
     <t>invasive species</t>
@@ -2108,7 +2105,7 @@
     <t>Stockpiles</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/waste-storage</t>
+    <t>http://www.informea.org/terms/waste-storage</t>
   </si>
   <si>
     <t>island biodiversity</t>
@@ -2129,7 +2126,7 @@
     <t>Sustainable Agriculture</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/sustainable-use</t>
+    <t>http://www.informea.org/terms/sustainable-use</t>
   </si>
   <si>
     <t>joint liaison group</t>
@@ -2138,7 +2135,7 @@
     <t>Sustainable Consumption and Production</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/cleaner-production</t>
+    <t>http://www.informea.org/terms/cleaner-production</t>
   </si>
   <si>
     <t>jurisprudence</t>
@@ -2147,7 +2144,7 @@
     <t>Sustainable Development</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/sustainable-development</t>
+    <t>http://www.informea.org/terms/sustainable-development</t>
   </si>
   <si>
     <t>kyoto mechanism</t>
@@ -2162,7 +2159,7 @@
     <t>Sustainable Tourism</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/sustainable-tourism</t>
+    <t>http://www.informea.org/terms/sustainable-tourism</t>
   </si>
   <si>
     <t>land</t>
@@ -2177,7 +2174,7 @@
     <t>Taking, Hunting and Poaching</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/taking</t>
+    <t>http://www.informea.org/terms/taking</t>
   </si>
   <si>
     <t>land degradation</t>
@@ -2192,7 +2189,7 @@
     <t>Technology</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/technology</t>
+    <t>http://www.informea.org/terms/technology</t>
   </si>
   <si>
     <t>land reclamation</t>
@@ -2219,7 +2216,7 @@
     <t>Trade in Species</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/trade-species</t>
+    <t>http://www.informea.org/terms/trade-species</t>
   </si>
   <si>
     <t>land-based marine pollution</t>
@@ -2234,7 +2231,7 @@
     <t>Traditional Knowledge</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/indigenous-knowledge</t>
+    <t>http://www.informea.org/terms/indigenous-knowledge</t>
   </si>
   <si>
     <t>landlocked developing country</t>
@@ -2243,7 +2240,7 @@
     <t>Transboundary Impact</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/transboundary-effect</t>
+    <t>http://www.informea.org/terms/transboundary-effect</t>
   </si>
   <si>
     <t>law reform</t>
@@ -2258,7 +2255,7 @@
     <t>Transport</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/transport</t>
+    <t>http://www.informea.org/terms/transport</t>
   </si>
   <si>
     <t>liability</t>
@@ -2267,7 +2264,7 @@
     <t>Treaty</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/international-agreement</t>
+    <t>http://www.informea.org/terms/international-agreement</t>
   </si>
   <si>
     <t>light pollution</t>
@@ -2282,7 +2279,7 @@
     <t>Voting</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/voting</t>
+    <t>http://www.informea.org/terms/voting</t>
   </si>
   <si>
     <t>livestock farming</t>
@@ -2291,7 +2288,7 @@
     <t>Wastes including Harzadous Wastes</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/waste</t>
+    <t>http://www.informea.org/terms/waste</t>
   </si>
   <si>
     <t>living modified organism</t>
@@ -2300,7 +2297,7 @@
     <t>Water Management and Wise Use</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/water-resources-management</t>
+    <t>http://www.informea.org/terms/water-resources-management</t>
   </si>
   <si>
     <t>local administration</t>
@@ -2309,7 +2306,7 @@
     <t>Waterbirds</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/waterfowl</t>
+    <t>http://www.informea.org/terms/waterfowl</t>
   </si>
   <si>
     <t>logging</t>
@@ -2318,10 +2315,10 @@
     <t>Wetlands of International Importance</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/wetland</t>
-  </si>
-  <si>
-    <t>http://leo.informea.org/terms/ramsar-site</t>
+    <t>http://www.informea.org/terms/wetland</t>
+  </si>
+  <si>
+    <t>http://www.informea.org/terms/ramsar-site</t>
   </si>
   <si>
     <t>longe-range air pollution</t>
@@ -2330,7 +2327,7 @@
     <t>Withdrawal</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/withdrawal</t>
+    <t>http://www.informea.org/terms/withdrawal</t>
   </si>
   <si>
     <t>LULUCF</t>
@@ -2372,55 +2369,55 @@
     <t>marine genetic resource</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/wetland-ecosystem</t>
+    <t>http://www.informea.org/terms/wetland-ecosystem</t>
   </si>
   <si>
     <t>marine pollution</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/wetland-mitigation</t>
+    <t>http://www.informea.org/terms/wetland-mitigation</t>
   </si>
   <si>
     <t>marine protected area</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/wetland-restoration</t>
+    <t>http://www.informea.org/terms/wetland-restoration</t>
   </si>
   <si>
     <t>marine resources conservation</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/wild-fauna</t>
+    <t>http://www.informea.org/terms/wild-fauna</t>
   </si>
   <si>
     <t>maritime zone</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/wild-flora</t>
+    <t>http://www.informea.org/terms/wild-flora</t>
   </si>
   <si>
     <t>medical waste</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/wilderness-area</t>
+    <t>http://www.informea.org/terms/wilderness-area</t>
   </si>
   <si>
     <t>Memorandum of Understanding</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/wildlife</t>
+    <t>http://www.informea.org/terms/wildlife</t>
   </si>
   <si>
     <t>mercury</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/wildlife-product</t>
+    <t>http://www.informea.org/terms/wildlife-product</t>
   </si>
   <si>
     <t>migratory species</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/wind-energy</t>
+    <t>http://www.informea.org/terms/wind-energy</t>
   </si>
   <si>
     <t>military activity</t>
@@ -2429,7 +2426,7 @@
     <t>mineral resource</t>
   </si>
   <si>
-    <t>http://leo.informea.org/terms/working-group</t>
+    <t>http://www.informea.org/terms/working-group</t>
   </si>
   <si>
     <t>mining</t>
@@ -3106,6 +3103,7 @@
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3233,7 +3231,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1:G1"/>
+      <selection pane="topRight" activeCell="B6" activeCellId="0" sqref="B2:B61 B63:B104 B106:B117 B119:B158 B160:B220 B222:B228 B231:B291 C3 C7:D8 C16 C19 C27 C31 C39 C43 C46:C49 C53 C57:C58 C73 C89 C101:D101 C106:C110 C124 C128 C143 C149 C154 C156 C162 C177 C197 C200 C208:C210 C219 C239:D240 C243 C247 C253 C256 C261 C263:C264 C266 C270 C274 C282 C284 C287 C289:C290 D264 E28 G294:G304 H2:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5753,52 +5751,52 @@
         <v>439</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>440</v>
+        <v>89</v>
       </c>
       <c r="C159" s="0"/>
       <c r="D159" s="0"/>
       <c r="F159" s="2"/>
       <c r="G159" s="0"/>
       <c r="H159" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="B160" s="6" t="s">
         <v>442</v>
-      </c>
-      <c r="B160" s="6" t="s">
-        <v>443</v>
       </c>
       <c r="C160" s="0"/>
       <c r="D160" s="0"/>
       <c r="F160" s="2"/>
       <c r="G160" s="0"/>
       <c r="H160" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>446</v>
       </c>
       <c r="C161" s="0"/>
       <c r="D161" s="0"/>
       <c r="F161" s="2"/>
       <c r="G161" s="0"/>
       <c r="H161" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="B162" s="6" t="s">
         <v>448</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>449</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>123</v>
@@ -5807,27 +5805,27 @@
       <c r="F162" s="2"/>
       <c r="G162" s="0"/>
       <c r="H162" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="B163" s="6" t="s">
         <v>451</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>452</v>
       </c>
       <c r="C163" s="0"/>
       <c r="D163" s="0"/>
       <c r="F163" s="2"/>
       <c r="G163" s="0"/>
       <c r="H163" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B164" s="6" t="s">
         <v>73</v>
@@ -5837,87 +5835,87 @@
       <c r="F164" s="2"/>
       <c r="G164" s="0"/>
       <c r="H164" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="B165" s="6" t="s">
         <v>456</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>457</v>
       </c>
       <c r="C165" s="0"/>
       <c r="D165" s="0"/>
       <c r="F165" s="2"/>
       <c r="G165" s="0"/>
       <c r="H165" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="B166" s="6" t="s">
         <v>459</v>
-      </c>
-      <c r="B166" s="6" t="s">
-        <v>460</v>
       </c>
       <c r="C166" s="0"/>
       <c r="D166" s="0"/>
       <c r="F166" s="2"/>
       <c r="G166" s="0"/>
       <c r="H166" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="B167" s="6" t="s">
         <v>462</v>
-      </c>
-      <c r="B167" s="6" t="s">
-        <v>463</v>
       </c>
       <c r="C167" s="0"/>
       <c r="D167" s="0"/>
       <c r="F167" s="2"/>
       <c r="G167" s="0"/>
       <c r="H167" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C168" s="0"/>
       <c r="D168" s="0"/>
       <c r="F168" s="2"/>
       <c r="G168" s="0"/>
       <c r="H168" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C169" s="0"/>
       <c r="D169" s="0"/>
       <c r="F169" s="2"/>
       <c r="G169" s="0"/>
       <c r="H169" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>153</v>
@@ -5927,102 +5925,102 @@
       <c r="F170" s="2"/>
       <c r="G170" s="0"/>
       <c r="H170" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C171" s="0"/>
       <c r="D171" s="0"/>
       <c r="F171" s="2"/>
       <c r="G171" s="0"/>
       <c r="H171" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C172" s="0"/>
       <c r="D172" s="0"/>
       <c r="F172" s="2"/>
       <c r="G172" s="0"/>
       <c r="H172" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C173" s="0"/>
       <c r="D173" s="0"/>
       <c r="F173" s="2"/>
       <c r="G173" s="0"/>
       <c r="H173" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="B174" s="6" t="s">
         <v>477</v>
-      </c>
-      <c r="B174" s="6" t="s">
-        <v>478</v>
       </c>
       <c r="C174" s="0"/>
       <c r="D174" s="0"/>
       <c r="F174" s="2"/>
       <c r="G174" s="0"/>
       <c r="H174" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>480</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="C175" s="0"/>
       <c r="D175" s="0"/>
       <c r="F175" s="2"/>
       <c r="G175" s="0"/>
       <c r="H175" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C176" s="0"/>
       <c r="D176" s="0"/>
       <c r="F176" s="2"/>
       <c r="G176" s="0"/>
       <c r="H176" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B177" s="5" t="s">
         <v>246</v>
@@ -6034,117 +6032,117 @@
       <c r="F177" s="2"/>
       <c r="G177" s="0"/>
       <c r="H177" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="B178" s="6" t="s">
         <v>487</v>
-      </c>
-      <c r="B178" s="6" t="s">
-        <v>488</v>
       </c>
       <c r="C178" s="0"/>
       <c r="D178" s="0"/>
       <c r="F178" s="2"/>
       <c r="G178" s="0"/>
       <c r="H178" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="B179" s="6" t="s">
         <v>490</v>
-      </c>
-      <c r="B179" s="6" t="s">
-        <v>491</v>
       </c>
       <c r="C179" s="0"/>
       <c r="D179" s="0"/>
       <c r="F179" s="2"/>
       <c r="G179" s="0"/>
       <c r="H179" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="B180" s="6" t="s">
         <v>493</v>
-      </c>
-      <c r="B180" s="6" t="s">
-        <v>494</v>
       </c>
       <c r="C180" s="0"/>
       <c r="D180" s="0"/>
       <c r="F180" s="2"/>
       <c r="G180" s="0"/>
       <c r="H180" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="B181" s="6" t="s">
         <v>496</v>
-      </c>
-      <c r="B181" s="6" t="s">
-        <v>497</v>
       </c>
       <c r="C181" s="0"/>
       <c r="D181" s="0"/>
       <c r="F181" s="2"/>
       <c r="G181" s="0"/>
       <c r="H181" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C182" s="0"/>
       <c r="D182" s="0"/>
       <c r="F182" s="2"/>
       <c r="G182" s="0"/>
       <c r="H182" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="B183" s="6" t="s">
         <v>501</v>
-      </c>
-      <c r="B183" s="6" t="s">
-        <v>502</v>
       </c>
       <c r="C183" s="0"/>
       <c r="D183" s="0"/>
       <c r="F183" s="2"/>
       <c r="G183" s="0"/>
       <c r="H183" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B184" s="6" t="s">
         <v>504</v>
-      </c>
-      <c r="B184" s="6" t="s">
-        <v>505</v>
       </c>
       <c r="C184" s="0"/>
       <c r="D184" s="0"/>
       <c r="F184" s="2"/>
       <c r="G184" s="0"/>
       <c r="H184" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>416</v>
@@ -6154,12 +6152,12 @@
       <c r="F185" s="2"/>
       <c r="G185" s="0"/>
       <c r="H185" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B186" s="5" t="s">
         <v>175</v>
@@ -6169,57 +6167,57 @@
       <c r="F186" s="2"/>
       <c r="G186" s="0"/>
       <c r="H186" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="B187" s="6" t="s">
         <v>511</v>
-      </c>
-      <c r="B187" s="6" t="s">
-        <v>512</v>
       </c>
       <c r="C187" s="0"/>
       <c r="D187" s="0"/>
       <c r="F187" s="2"/>
       <c r="G187" s="0"/>
       <c r="H187" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="B188" s="5" t="s">
         <v>514</v>
-      </c>
-      <c r="B188" s="5" t="s">
-        <v>515</v>
       </c>
       <c r="C188" s="0"/>
       <c r="D188" s="0"/>
       <c r="F188" s="2"/>
       <c r="G188" s="0"/>
       <c r="H188" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C189" s="0"/>
       <c r="D189" s="0"/>
       <c r="F189" s="2"/>
       <c r="G189" s="0"/>
       <c r="H189" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B190" s="5" t="s">
         <v>80</v>
@@ -6229,57 +6227,57 @@
       <c r="F190" s="2"/>
       <c r="G190" s="0"/>
       <c r="H190" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="B191" s="6" t="s">
         <v>521</v>
-      </c>
-      <c r="B191" s="6" t="s">
-        <v>522</v>
       </c>
       <c r="C191" s="0"/>
       <c r="D191" s="0"/>
       <c r="F191" s="2"/>
       <c r="G191" s="0"/>
       <c r="H191" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C192" s="0"/>
       <c r="D192" s="0"/>
       <c r="F192" s="2"/>
       <c r="G192" s="0"/>
       <c r="H192" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="B193" s="6" t="s">
         <v>526</v>
-      </c>
-      <c r="B193" s="6" t="s">
-        <v>527</v>
       </c>
       <c r="C193" s="0"/>
       <c r="D193" s="0"/>
       <c r="F193" s="2"/>
       <c r="G193" s="0"/>
       <c r="H193" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B194" s="5" t="s">
         <v>175</v>
@@ -6289,89 +6287,89 @@
       <c r="F194" s="2"/>
       <c r="G194" s="0"/>
       <c r="H194" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="B195" s="6" t="s">
         <v>531</v>
-      </c>
-      <c r="B195" s="6" t="s">
-        <v>532</v>
       </c>
       <c r="C195" s="0"/>
       <c r="D195" s="0"/>
       <c r="F195" s="2"/>
       <c r="G195" s="0"/>
       <c r="H195" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="B196" s="6" t="s">
         <v>534</v>
-      </c>
-      <c r="B196" s="6" t="s">
-        <v>535</v>
       </c>
       <c r="C196" s="0"/>
       <c r="D196" s="0"/>
       <c r="F196" s="2"/>
       <c r="G196" s="0"/>
       <c r="H196" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="B197" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="B197" s="6" t="s">
+      <c r="C197" s="5" t="s">
         <v>538</v>
-      </c>
-      <c r="C197" s="5" t="s">
-        <v>539</v>
       </c>
       <c r="D197" s="0"/>
       <c r="F197" s="2"/>
       <c r="G197" s="0"/>
       <c r="H197" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="B198" s="6" t="s">
         <v>541</v>
-      </c>
-      <c r="B198" s="6" t="s">
-        <v>542</v>
       </c>
       <c r="C198" s="0"/>
       <c r="D198" s="0"/>
       <c r="F198" s="2"/>
       <c r="G198" s="0"/>
       <c r="H198" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="B199" s="6" t="s">
         <v>544</v>
-      </c>
-      <c r="B199" s="6" t="s">
-        <v>545</v>
       </c>
       <c r="C199" s="0"/>
       <c r="D199" s="0"/>
       <c r="F199" s="2"/>
       <c r="G199" s="0"/>
       <c r="H199" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B200" s="6" t="s">
         <v>51</v>
@@ -6383,12 +6381,12 @@
       <c r="F200" s="2"/>
       <c r="G200" s="0"/>
       <c r="H200" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B201" s="6" t="s">
         <v>211</v>
@@ -6398,12 +6396,12 @@
       <c r="F201" s="2"/>
       <c r="G201" s="0"/>
       <c r="H201" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B202" s="5" t="s">
         <v>150</v>
@@ -6413,42 +6411,42 @@
       <c r="F202" s="2"/>
       <c r="G202" s="0"/>
       <c r="H202" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="B203" s="6" t="s">
         <v>553</v>
-      </c>
-      <c r="B203" s="6" t="s">
-        <v>554</v>
       </c>
       <c r="C203" s="0"/>
       <c r="D203" s="0"/>
       <c r="F203" s="2"/>
       <c r="G203" s="0"/>
       <c r="H203" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="B204" s="6" t="s">
         <v>556</v>
-      </c>
-      <c r="B204" s="6" t="s">
-        <v>557</v>
       </c>
       <c r="C204" s="0"/>
       <c r="D204" s="0"/>
       <c r="F204" s="2"/>
       <c r="G204" s="0"/>
       <c r="H204" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B205" s="6" t="s">
         <v>408</v>
@@ -6458,59 +6456,59 @@
       <c r="F205" s="2"/>
       <c r="G205" s="0"/>
       <c r="H205" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="B206" s="6" t="s">
         <v>561</v>
-      </c>
-      <c r="B206" s="6" t="s">
-        <v>562</v>
       </c>
       <c r="C206" s="0"/>
       <c r="D206" s="0"/>
       <c r="F206" s="2"/>
       <c r="G206" s="0"/>
       <c r="H206" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="B207" s="6" t="s">
         <v>564</v>
-      </c>
-      <c r="B207" s="6" t="s">
-        <v>565</v>
       </c>
       <c r="C207" s="0"/>
       <c r="D207" s="0"/>
       <c r="F207" s="2"/>
       <c r="G207" s="0"/>
       <c r="H207" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="B208" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="B208" s="6" t="s">
+      <c r="C208" s="5" t="s">
         <v>568</v>
-      </c>
-      <c r="C208" s="5" t="s">
-        <v>569</v>
       </c>
       <c r="D208" s="0"/>
       <c r="F208" s="2"/>
       <c r="G208" s="0"/>
       <c r="H208" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B209" s="5" t="s">
         <v>127</v>
@@ -6522,12 +6520,12 @@
       <c r="F209" s="2"/>
       <c r="G209" s="0"/>
       <c r="H209" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B210" s="5" t="s">
         <v>127</v>
@@ -6539,12 +6537,12 @@
       <c r="F210" s="2"/>
       <c r="G210" s="0"/>
       <c r="H210" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B211" s="6" t="s">
         <v>107</v>
@@ -6554,12 +6552,12 @@
       <c r="F211" s="2"/>
       <c r="G211" s="0"/>
       <c r="H211" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B212" s="6" t="s">
         <v>354</v>
@@ -6569,42 +6567,42 @@
       <c r="F212" s="2"/>
       <c r="G212" s="0"/>
       <c r="H212" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="B213" s="6" t="s">
         <v>579</v>
-      </c>
-      <c r="B213" s="6" t="s">
-        <v>580</v>
       </c>
       <c r="C213" s="0"/>
       <c r="D213" s="0"/>
       <c r="F213" s="2"/>
       <c r="G213" s="0"/>
       <c r="H213" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="B214" s="6" t="s">
         <v>582</v>
-      </c>
-      <c r="B214" s="6" t="s">
-        <v>583</v>
       </c>
       <c r="C214" s="0"/>
       <c r="D214" s="0"/>
       <c r="F214" s="2"/>
       <c r="G214" s="0"/>
       <c r="H214" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B215" s="6" t="s">
         <v>18</v>
@@ -6614,74 +6612,74 @@
       <c r="F215" s="2"/>
       <c r="G215" s="0"/>
       <c r="H215" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="B216" s="6" t="s">
         <v>587</v>
-      </c>
-      <c r="B216" s="6" t="s">
-        <v>588</v>
       </c>
       <c r="C216" s="0"/>
       <c r="D216" s="0"/>
       <c r="F216" s="2"/>
       <c r="G216" s="0"/>
       <c r="H216" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="B217" s="6" t="s">
         <v>590</v>
-      </c>
-      <c r="B217" s="6" t="s">
-        <v>591</v>
       </c>
       <c r="C217" s="0"/>
       <c r="D217" s="0"/>
       <c r="F217" s="2"/>
       <c r="G217" s="0"/>
       <c r="H217" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="B218" s="6" t="s">
         <v>593</v>
-      </c>
-      <c r="B218" s="6" t="s">
-        <v>594</v>
       </c>
       <c r="C218" s="0"/>
       <c r="D218" s="0"/>
       <c r="F218" s="2"/>
       <c r="G218" s="0"/>
       <c r="H218" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B219" s="6" t="s">
         <v>408</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D219" s="0"/>
       <c r="F219" s="2"/>
       <c r="G219" s="0"/>
       <c r="H219" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="12" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B220" s="5" t="s">
         <v>381</v>
@@ -6691,12 +6689,12 @@
       <c r="F220" s="2"/>
       <c r="G220" s="0"/>
       <c r="H220" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B221" s="0"/>
       <c r="C221" s="0"/>
@@ -6704,12 +6702,12 @@
       <c r="F221" s="2"/>
       <c r="G221" s="0"/>
       <c r="H221" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="12" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B222" s="5" t="s">
         <v>211</v>
@@ -6719,12 +6717,12 @@
       <c r="F222" s="2"/>
       <c r="G222" s="0"/>
       <c r="H222" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B223" s="5" t="s">
         <v>172</v>
@@ -6734,72 +6732,72 @@
       <c r="F223" s="2"/>
       <c r="G223" s="0"/>
       <c r="H223" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="B224" s="6" t="s">
         <v>607</v>
-      </c>
-      <c r="B224" s="6" t="s">
-        <v>608</v>
       </c>
       <c r="C224" s="0"/>
       <c r="D224" s="0"/>
       <c r="F224" s="2"/>
       <c r="G224" s="0"/>
       <c r="H224" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="B225" s="6" t="s">
         <v>610</v>
-      </c>
-      <c r="B225" s="6" t="s">
-        <v>611</v>
       </c>
       <c r="C225" s="0"/>
       <c r="D225" s="0"/>
       <c r="F225" s="2"/>
       <c r="G225" s="0"/>
       <c r="H225" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="B226" s="6" t="s">
         <v>613</v>
-      </c>
-      <c r="B226" s="6" t="s">
-        <v>614</v>
       </c>
       <c r="C226" s="0"/>
       <c r="D226" s="0"/>
       <c r="F226" s="2"/>
       <c r="G226" s="0"/>
       <c r="H226" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="B227" s="6" t="s">
         <v>616</v>
-      </c>
-      <c r="B227" s="6" t="s">
-        <v>617</v>
       </c>
       <c r="C227" s="0"/>
       <c r="D227" s="0"/>
       <c r="F227" s="2"/>
       <c r="G227" s="0"/>
       <c r="H227" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B228" s="5" t="s">
         <v>325</v>
@@ -6809,12 +6807,12 @@
       <c r="F228" s="2"/>
       <c r="G228" s="0"/>
       <c r="H228" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="11" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B229" s="0"/>
       <c r="C229" s="0"/>
@@ -6822,12 +6820,12 @@
       <c r="F229" s="2"/>
       <c r="G229" s="0"/>
       <c r="H229" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="11" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B230" s="0"/>
       <c r="C230" s="0"/>
@@ -6835,27 +6833,27 @@
       <c r="F230" s="2"/>
       <c r="G230" s="0"/>
       <c r="H230" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C231" s="0"/>
       <c r="D231" s="0"/>
       <c r="F231" s="2"/>
       <c r="G231" s="0"/>
       <c r="H231" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>49</v>
@@ -6865,12 +6863,12 @@
       <c r="F232" s="2"/>
       <c r="G232" s="0"/>
       <c r="H232" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B233" s="5" t="s">
         <v>74</v>
@@ -6880,42 +6878,42 @@
       <c r="F233" s="2"/>
       <c r="G233" s="0"/>
       <c r="H233" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="B234" s="5" t="s">
         <v>631</v>
-      </c>
-      <c r="B234" s="5" t="s">
-        <v>632</v>
       </c>
       <c r="C234" s="0"/>
       <c r="D234" s="0"/>
       <c r="F234" s="2"/>
       <c r="G234" s="0"/>
       <c r="H234" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C235" s="0"/>
       <c r="D235" s="0"/>
       <c r="F235" s="2"/>
       <c r="G235" s="0"/>
       <c r="H235" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B236" s="5" t="s">
         <v>341</v>
@@ -6925,80 +6923,80 @@
       <c r="F236" s="2"/>
       <c r="G236" s="0"/>
       <c r="H236" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="B237" s="6" t="s">
         <v>638</v>
-      </c>
-      <c r="B237" s="6" t="s">
-        <v>639</v>
       </c>
       <c r="C237" s="0"/>
       <c r="D237" s="0"/>
       <c r="F237" s="2"/>
       <c r="G237" s="0"/>
       <c r="H237" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C238" s="0"/>
       <c r="D238" s="0"/>
       <c r="F238" s="2"/>
       <c r="G238" s="0"/>
       <c r="H238" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>278</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F239" s="2"/>
       <c r="G239" s="0"/>
       <c r="H239" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>278</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F240" s="2"/>
       <c r="G240" s="0"/>
       <c r="H240" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B241" s="5" t="s">
         <v>107</v>
@@ -7008,12 +7006,12 @@
       <c r="F241" s="2"/>
       <c r="G241" s="0"/>
       <c r="H241" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B242" s="5" t="s">
         <v>313</v>
@@ -7023,29 +7021,29 @@
       <c r="F242" s="2"/>
       <c r="G242" s="0"/>
       <c r="H242" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="B243" s="6" t="s">
         <v>651</v>
       </c>
-      <c r="B243" s="6" t="s">
+      <c r="C243" s="6" t="s">
         <v>652</v>
-      </c>
-      <c r="C243" s="6" t="s">
-        <v>653</v>
       </c>
       <c r="D243" s="0"/>
       <c r="F243" s="2"/>
       <c r="G243" s="0"/>
       <c r="H243" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B244" s="5" t="s">
         <v>70</v>
@@ -7055,42 +7053,42 @@
       <c r="F244" s="2"/>
       <c r="G244" s="0"/>
       <c r="H244" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="B245" s="6" t="s">
         <v>657</v>
-      </c>
-      <c r="B245" s="6" t="s">
-        <v>658</v>
       </c>
       <c r="C245" s="0"/>
       <c r="D245" s="0"/>
       <c r="F245" s="2"/>
       <c r="G245" s="0"/>
       <c r="H245" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="B246" s="1" t="s">
         <v>660</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>661</v>
       </c>
       <c r="C246" s="0"/>
       <c r="D246" s="0"/>
       <c r="F246" s="2"/>
       <c r="G246" s="0"/>
       <c r="H246" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B247" s="5" t="s">
         <v>354</v>
@@ -7102,12 +7100,12 @@
       <c r="F247" s="2"/>
       <c r="G247" s="0"/>
       <c r="H247" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B248" s="5" t="s">
         <v>354</v>
@@ -7117,27 +7115,27 @@
       <c r="F248" s="2"/>
       <c r="G248" s="0"/>
       <c r="H248" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="B249" s="6" t="s">
         <v>667</v>
-      </c>
-      <c r="B249" s="6" t="s">
-        <v>668</v>
       </c>
       <c r="C249" s="0"/>
       <c r="D249" s="0"/>
       <c r="F249" s="2"/>
       <c r="G249" s="0"/>
       <c r="H249" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B250" s="5" t="s">
         <v>292</v>
@@ -7147,42 +7145,42 @@
       <c r="F250" s="2"/>
       <c r="G250" s="0"/>
       <c r="H250" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="B251" s="5" t="s">
         <v>672</v>
-      </c>
-      <c r="B251" s="5" t="s">
-        <v>673</v>
       </c>
       <c r="C251" s="0"/>
       <c r="D251" s="0"/>
       <c r="F251" s="2"/>
       <c r="G251" s="0"/>
       <c r="H251" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="B252" s="6" t="s">
         <v>675</v>
-      </c>
-      <c r="B252" s="6" t="s">
-        <v>676</v>
       </c>
       <c r="C252" s="0"/>
       <c r="D252" s="0"/>
       <c r="F252" s="2"/>
       <c r="G252" s="0"/>
       <c r="H252" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B253" s="5" t="s">
         <v>395</v>
@@ -7194,12 +7192,12 @@
       <c r="F253" s="2"/>
       <c r="G253" s="0"/>
       <c r="H253" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B254" s="5" t="s">
         <v>147</v>
@@ -7209,30 +7207,30 @@
       <c r="F254" s="2"/>
       <c r="G254" s="0"/>
       <c r="H254" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="B255" s="5" t="s">
         <v>682</v>
-      </c>
-      <c r="B255" s="5" t="s">
-        <v>683</v>
       </c>
       <c r="C255" s="0"/>
       <c r="D255" s="0"/>
       <c r="F255" s="2"/>
       <c r="G255" s="0"/>
       <c r="H255" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="B256" s="6" t="s">
         <v>685</v>
-      </c>
-      <c r="B256" s="6" t="s">
-        <v>686</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>147</v>
@@ -7241,27 +7239,27 @@
       <c r="F256" s="2"/>
       <c r="G256" s="0"/>
       <c r="H256" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="B257" s="6" t="s">
         <v>688</v>
-      </c>
-      <c r="B257" s="6" t="s">
-        <v>689</v>
       </c>
       <c r="C257" s="0"/>
       <c r="D257" s="0"/>
       <c r="F257" s="2"/>
       <c r="G257" s="0"/>
       <c r="H257" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B258" s="5" t="s">
         <v>85</v>
@@ -7271,77 +7269,77 @@
       <c r="F258" s="2"/>
       <c r="G258" s="0"/>
       <c r="H258" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="B259" s="6" t="s">
         <v>693</v>
-      </c>
-      <c r="B259" s="6" t="s">
-        <v>694</v>
       </c>
       <c r="C259" s="0"/>
       <c r="D259" s="0"/>
       <c r="F259" s="2"/>
       <c r="G259" s="0"/>
       <c r="H259" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="B260" s="6" t="s">
         <v>696</v>
-      </c>
-      <c r="B260" s="6" t="s">
-        <v>697</v>
       </c>
       <c r="C260" s="0"/>
       <c r="D260" s="0"/>
       <c r="F260" s="2"/>
       <c r="G260" s="0"/>
       <c r="H260" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B261" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D261" s="0"/>
       <c r="F261" s="2"/>
       <c r="G261" s="0"/>
       <c r="H261" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C262" s="0"/>
       <c r="D262" s="0"/>
       <c r="F262" s="2"/>
       <c r="G262" s="0"/>
       <c r="H262" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="B263" s="5" t="s">
         <v>703</v>
-      </c>
-      <c r="B263" s="5" t="s">
-        <v>704</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>47</v>
@@ -7350,48 +7348,48 @@
       <c r="F263" s="2"/>
       <c r="G263" s="0"/>
       <c r="H263" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C264" s="5" t="s">
         <v>261</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F264" s="2"/>
       <c r="G264" s="0"/>
       <c r="H264" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
+        <v>708</v>
+      </c>
+      <c r="B265" s="6" t="s">
         <v>709</v>
-      </c>
-      <c r="B265" s="6" t="s">
-        <v>710</v>
       </c>
       <c r="C265" s="0"/>
       <c r="F265" s="2"/>
       <c r="G265" s="0"/>
       <c r="H265" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>395</v>
@@ -7399,54 +7397,54 @@
       <c r="F266" s="2"/>
       <c r="G266" s="0"/>
       <c r="H266" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="B267" s="5" t="s">
         <v>714</v>
-      </c>
-      <c r="B267" s="5" t="s">
-        <v>715</v>
       </c>
       <c r="C267" s="6"/>
       <c r="F267" s="2"/>
       <c r="G267" s="0"/>
       <c r="H267" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C268" s="0"/>
       <c r="F268" s="2"/>
       <c r="G268" s="0"/>
       <c r="H268" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="B269" s="6" t="s">
         <v>719</v>
-      </c>
-      <c r="B269" s="6" t="s">
-        <v>720</v>
       </c>
       <c r="C269" s="0"/>
       <c r="F269" s="2"/>
       <c r="G269" s="0"/>
       <c r="H269" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B270" s="6" t="s">
         <v>86</v>
@@ -7457,26 +7455,26 @@
       <c r="F270" s="2"/>
       <c r="G270" s="0"/>
       <c r="H270" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="B271" s="5" t="s">
         <v>724</v>
-      </c>
-      <c r="B271" s="5" t="s">
-        <v>725</v>
       </c>
       <c r="C271" s="0"/>
       <c r="F271" s="2"/>
       <c r="G271" s="0"/>
       <c r="H271" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B272" s="6" t="s">
         <v>86</v>
@@ -7485,12 +7483,12 @@
       <c r="F272" s="2"/>
       <c r="G272" s="0"/>
       <c r="H272" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B273" s="5" t="s">
         <v>80</v>
@@ -7499,15 +7497,15 @@
       <c r="F273" s="2"/>
       <c r="G273" s="0"/>
       <c r="H273" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C274" s="5" t="s">
         <v>346</v>
@@ -7515,68 +7513,68 @@
       <c r="F274" s="2"/>
       <c r="G274" s="0"/>
       <c r="H274" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
+        <v>732</v>
+      </c>
+      <c r="B275" s="6" t="s">
         <v>733</v>
-      </c>
-      <c r="B275" s="6" t="s">
-        <v>734</v>
       </c>
       <c r="C275" s="0"/>
       <c r="F275" s="2"/>
       <c r="G275" s="0"/>
       <c r="H275" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C276" s="0"/>
       <c r="F276" s="2"/>
       <c r="G276" s="0"/>
       <c r="H276" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
+        <v>737</v>
+      </c>
+      <c r="B277" s="1" t="s">
         <v>738</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>739</v>
       </c>
       <c r="C277" s="0"/>
       <c r="F277" s="2"/>
       <c r="G277" s="0"/>
       <c r="H277" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="B278" s="1" t="s">
         <v>741</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>742</v>
       </c>
       <c r="C278" s="0"/>
       <c r="F278" s="2"/>
       <c r="G278" s="0"/>
       <c r="H278" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B279" s="5" t="s">
         <v>346</v>
@@ -7585,160 +7583,160 @@
       <c r="F279" s="2"/>
       <c r="G279" s="0"/>
       <c r="H279" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="B280" s="6" t="s">
         <v>746</v>
-      </c>
-      <c r="B280" s="6" t="s">
-        <v>747</v>
       </c>
       <c r="C280" s="0"/>
       <c r="F280" s="2"/>
       <c r="G280" s="0"/>
       <c r="H280" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="B281" s="5" t="s">
         <v>749</v>
-      </c>
-      <c r="B281" s="5" t="s">
-        <v>750</v>
       </c>
       <c r="C281" s="0"/>
       <c r="F281" s="2"/>
       <c r="G281" s="0"/>
       <c r="H281" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F282" s="2"/>
       <c r="G282" s="0"/>
       <c r="H282" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
+        <v>753</v>
+      </c>
+      <c r="B283" s="6" t="s">
         <v>754</v>
-      </c>
-      <c r="B283" s="6" t="s">
-        <v>755</v>
       </c>
       <c r="C283" s="0"/>
       <c r="F283" s="2"/>
       <c r="G283" s="0"/>
       <c r="H283" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B284" s="5" t="s">
         <v>203</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F284" s="2"/>
       <c r="G284" s="0"/>
       <c r="H284" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="B285" s="6" t="s">
         <v>760</v>
-      </c>
-      <c r="B285" s="6" t="s">
-        <v>761</v>
       </c>
       <c r="C285" s="0"/>
       <c r="F285" s="2"/>
       <c r="G285" s="0"/>
       <c r="H285" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
+        <v>762</v>
+      </c>
+      <c r="B286" s="6" t="s">
         <v>763</v>
-      </c>
-      <c r="B286" s="6" t="s">
-        <v>764</v>
       </c>
       <c r="C286" s="0"/>
       <c r="F286" s="2"/>
       <c r="G286" s="0"/>
       <c r="H286" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="B287" s="6" t="s">
         <v>766</v>
       </c>
-      <c r="B287" s="6" t="s">
+      <c r="C287" s="6" t="s">
         <v>767</v>
-      </c>
-      <c r="C287" s="6" t="s">
-        <v>768</v>
       </c>
       <c r="F287" s="2"/>
       <c r="G287" s="0"/>
       <c r="H287" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="B288" s="6" t="s">
         <v>770</v>
-      </c>
-      <c r="B288" s="6" t="s">
-        <v>771</v>
       </c>
       <c r="C288" s="0"/>
       <c r="F288" s="2"/>
       <c r="G288" s="0"/>
       <c r="H288" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B289" s="5" t="s">
         <v>175</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F289" s="2"/>
       <c r="G289" s="0"/>
       <c r="H289" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B290" s="5" t="s">
         <v>175</v>
@@ -7749,12 +7747,12 @@
       <c r="F290" s="2"/>
       <c r="G290" s="0"/>
       <c r="H290" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="13" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>37</v>
@@ -7762,1204 +7760,1114 @@
       <c r="F291" s="2"/>
       <c r="G291" s="0"/>
       <c r="H291" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F292" s="2"/>
       <c r="G292" s="0"/>
       <c r="H292" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F293" s="2"/>
       <c r="G293" s="0"/>
       <c r="H293" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G294" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="H294" s="2" t="s">
         <v>781</v>
-      </c>
-      <c r="H294" s="2" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G295" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="H295" s="2" t="s">
         <v>783</v>
-      </c>
-      <c r="H295" s="2" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G296" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="H296" s="2" t="s">
         <v>785</v>
-      </c>
-      <c r="H296" s="2" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G297" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="H297" s="2" t="s">
         <v>787</v>
-      </c>
-      <c r="H297" s="2" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G298" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="H298" s="2" t="s">
         <v>789</v>
-      </c>
-      <c r="H298" s="2" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G299" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="H299" s="2" t="s">
         <v>791</v>
-      </c>
-      <c r="H299" s="2" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G300" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="H300" s="2" t="s">
         <v>793</v>
-      </c>
-      <c r="H300" s="2" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G301" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="H301" s="2" t="s">
         <v>795</v>
-      </c>
-      <c r="H301" s="2" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G302" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="H302" s="2" t="s">
         <v>797</v>
-      </c>
-      <c r="H302" s="2" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G303" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H303" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G304" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="H304" s="2" t="s">
         <v>800</v>
-      </c>
-      <c r="H304" s="2" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H305" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H306" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H307" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H308" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H309" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H310" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H311" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H312" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H313" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H314" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H315" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H316" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H317" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H318" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H319" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H320" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H321" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H322" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H323" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H324" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H325" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H326" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H327" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H328" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H329" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H330" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H331" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H332" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H333" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H334" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H335" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H336" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H337" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H338" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H339" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H340" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H341" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H342" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H343" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H344" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H345" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H346" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H347" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H348" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H349" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H350" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H351" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H352" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H353" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H354" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H355" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H356" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H357" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H358" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H359" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H360" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H361" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H362" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H363" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H364" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H365" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H366" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H367" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H368" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H369" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H370" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H371" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H372" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H373" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H374" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H375" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H376" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H377" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H378" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H379" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H380" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H381" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H382" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H383" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H384" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H385" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H386" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H387" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H388" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H389" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H390" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H391" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H392" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H393" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H394" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H395" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H396" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H397" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H398" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H399" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H400" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H401" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H402" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H403" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H404" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H405" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H406" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H407" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H408" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H409" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H410" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H411" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H412" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H413" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H414" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H415" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H416" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H417" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H418" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H419" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H420" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H421" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H422" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H423" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H424" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H425" s="2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H426" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H427" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H428" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H429" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H430" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H431" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H432" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H433" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H434" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H435" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H436" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H437" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H438" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H439" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H440" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H441" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H442" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H443" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H444" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H445" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H446" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H447" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H448" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H449" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H450" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H451" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H452" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H453" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H454" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H455" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H456" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H457" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H458" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H459" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H460" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H461" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H462" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H463" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H464" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H465" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H466" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H467" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H468" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H469" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H470" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H471" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H472" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H473" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H474" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H475" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H476" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H477" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H478" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H479" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H480" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H481" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H482" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H483" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H484" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H485" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H486" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H487" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H488" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H489" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H490" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H491" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H492" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H493" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H494" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H495" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H496" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H497" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H498" s="2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H499" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H500" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H501" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H502" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H503" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H504" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://leo.informea.org/terms/acceptance"/>
-    <hyperlink ref="B15" r:id="rId2" display="http://leo.informea.org/terms/amendment-procedures"/>
-    <hyperlink ref="B18" r:id="rId3" display="http://leo.informea.org/terms/global-strategy"/>
-    <hyperlink ref="B32" r:id="rId4" location="c_c4864204" display="http://leo.informea.org/terms#c_c4864204"/>
-    <hyperlink ref="C39" r:id="rId5" display="http://leo.informea.org/terms/secretariat"/>
-    <hyperlink ref="B40" r:id="rId6" location="c_f1aef8f8" display="http://leo.informea.org/terms#c_f1aef8f8"/>
-    <hyperlink ref="B42" r:id="rId7" display="http://leo.informea.org/terms/captive-breeding"/>
-    <hyperlink ref="B57" r:id="rId8" display="http://leo.informea.org/terms/compliance"/>
-    <hyperlink ref="B58" r:id="rId9" display="http://leo.informea.org/terms/compliance"/>
-    <hyperlink ref="B69" r:id="rId10" display="http://leo.informea.org/terms/derivative"/>
-    <hyperlink ref="C89" r:id="rId11" display="http://leo.informea.org/terms/black-carbon"/>
-    <hyperlink ref="B100" r:id="rId12" display="http://leo.informea.org/terms/advisory-body"/>
-    <hyperlink ref="D101" r:id="rId13" display="http://leo.informea.org/terms/bioprospecting"/>
-    <hyperlink ref="B104" r:id="rId14" display="http://leo.informea.org/terms/breeder's-right"/>
-    <hyperlink ref="C106" r:id="rId15" display="http://leo.informea.org/terms/budget"/>
-    <hyperlink ref="C107" r:id="rId16" display="http://leo.informea.org/terms/budget"/>
-    <hyperlink ref="C108" r:id="rId17" display="http://leo.informea.org/terms/budget"/>
-    <hyperlink ref="C109" r:id="rId18" display="http://leo.informea.org/terms/budget"/>
-    <hyperlink ref="C110" r:id="rId19" display="http://leo.informea.org/terms/budget"/>
-    <hyperlink ref="C124" r:id="rId20" display="http://leo.informea.org/terms/emission"/>
-    <hyperlink ref="B135" r:id="rId21" display="http://leo.informea.org/terms/ecosystem-management"/>
-    <hyperlink ref="B137" r:id="rId22" display="http://leo.informea.org/terms/intergenerational-equity"/>
-    <hyperlink ref="B143" r:id="rId23" display="http://leo.informea.org/terms/land"/>
-    <hyperlink ref="B155" r:id="rId24" display="http://leo.informea.org/terms/marine-protected-area"/>
-    <hyperlink ref="B156" r:id="rId25" display="http://leo.informea.org/terms/chemical"/>
-    <hyperlink ref="B159" r:id="rId26" location="c_c4864204" display="http://www.informea.org/terms#c_c4864204"/>
-    <hyperlink ref="B177" r:id="rId27" display="http://leo.informea.org/terms/emission"/>
-    <hyperlink ref="B186" r:id="rId28" display="http://leo.informea.org/terms/cultural-heritage"/>
-    <hyperlink ref="B188" r:id="rId29" display="http://leo.informea.org/terms/ozone-layer-depletion"/>
-    <hyperlink ref="B190" r:id="rId30" display="http://leo.informea.org/terms/benefit-sharing"/>
-    <hyperlink ref="B194" r:id="rId31" display="http://leo.informea.org/terms/cultural-heritage"/>
-    <hyperlink ref="C197" r:id="rId32" display="http://leo.informea.org/terms/genetic-resource-for-food-and-agriculture"/>
-    <hyperlink ref="B202" r:id="rId33" display="http://leo.informea.org/terms/indigenous-people"/>
-    <hyperlink ref="C208" r:id="rId34" display="http://leo.informea.org/terms/trade"/>
-    <hyperlink ref="B209" r:id="rId35" display="http://leo.informea.org/terms/chemical"/>
-    <hyperlink ref="C209" r:id="rId36" display="http://leo.informea.org/terms/waste-management"/>
-    <hyperlink ref="B210" r:id="rId37" display="http://leo.informea.org/terms/chemical"/>
-    <hyperlink ref="C210" r:id="rId38" display="http://leo.informea.org/terms/pesticide"/>
-    <hyperlink ref="C219" r:id="rId39" display="http://leo.informea.org/terms/compensation"/>
-    <hyperlink ref="B220" r:id="rId40" display="http://leo.informea.org/terms/international-cooperation"/>
-    <hyperlink ref="B222" r:id="rId41" display="http://leo.informea.org/terms/ship-based-marine-pollution"/>
-    <hyperlink ref="B223" r:id="rId42" display="http://leo.informea.org/terms/synergy"/>
-    <hyperlink ref="B228" r:id="rId43" display="http://leo.informea.org/terms/genetic-resource"/>
-    <hyperlink ref="B231" r:id="rId44" display="http://leo.informea.org/terms/prevention"/>
-    <hyperlink ref="B233" r:id="rId45" display="http://leo.informea.org/terms/risk-assessment"/>
-    <hyperlink ref="B234" r:id="rId46" display="http://leo.informea.org/terms/risk-management"/>
-    <hyperlink ref="B235" r:id="rId47" display="http://leo.informea.org/terms/rules-procedure"/>
-    <hyperlink ref="B236" r:id="rId48" display="http://leo.informea.org/terms/health"/>
-    <hyperlink ref="C239" r:id="rId49" display="http://leo.informea.org/terms/advisory-body"/>
-    <hyperlink ref="D239" r:id="rId50" display="http://leo.informea.org/terms/research"/>
-    <hyperlink ref="C240" r:id="rId51" display="http://leo.informea.org/terms/advisory-body"/>
-    <hyperlink ref="D240" r:id="rId52" display="http://leo.informea.org/terms/research"/>
-    <hyperlink ref="B241" r:id="rId53" display="http://leo.informea.org/terms/secretariat"/>
-    <hyperlink ref="B242" r:id="rId54" display="http://leo.informea.org/terms/food-security"/>
-    <hyperlink ref="B244" r:id="rId55" display="http://leo.informea.org/terms/dispute-settlement"/>
-    <hyperlink ref="B247" r:id="rId56" display="http://leo.informea.org/terms/protected-area"/>
-    <hyperlink ref="C247" r:id="rId57" display="http://leo.informea.org/terms/ecosystem-management"/>
-    <hyperlink ref="B248" r:id="rId58" display="http://leo.informea.org/terms/protected-area"/>
-    <hyperlink ref="B250" r:id="rId59" display="http://leo.informea.org/terms/breeder's-right"/>
-    <hyperlink ref="B251" r:id="rId60" display="http://leo.informea.org/terms/economy"/>
-    <hyperlink ref="B253" r:id="rId61" display="http://leo.informea.org/terms/land"/>
-    <hyperlink ref="B254" r:id="rId62" display="http://leo.informea.org/terms/common-differentiated-responsibilities"/>
-    <hyperlink ref="B255" r:id="rId63" display="http://leo.informea.org/terms/fund"/>
-    <hyperlink ref="C256" r:id="rId64" display="http://leo.informea.org/terms/common-differentiated-responsibilities"/>
-    <hyperlink ref="B258" r:id="rId65" display="http://leo.informea.org/terms/best-practice"/>
-    <hyperlink ref="B261" r:id="rId66" display="http://leo.informea.org/terms/global-strategy"/>
-    <hyperlink ref="C261" r:id="rId67" display="http://leo.informea.org/terms/national-strategy"/>
-    <hyperlink ref="B262" r:id="rId68" display="http://leo.informea.org/terms/subsidiary-body"/>
-    <hyperlink ref="B263" r:id="rId69" display="http://leo.informea.org/terms/sustainable-use"/>
-    <hyperlink ref="C263" r:id="rId70" display="http://leo.informea.org/terms/agriculture"/>
-    <hyperlink ref="B264" r:id="rId71" display="http://leo.informea.org/terms/sustainable-use"/>
-    <hyperlink ref="C264" r:id="rId72" display="http://leo.informea.org/terms/sound-environmental-management"/>
-    <hyperlink ref="B266" r:id="rId73" display="http://leo.informea.org/terms/sustainable-use"/>
-    <hyperlink ref="C266" r:id="rId74" display="http://leo.informea.org/terms/land"/>
-    <hyperlink ref="B267" r:id="rId75" display="http://leo.informea.org/terms/sustainable-tourism"/>
-    <hyperlink ref="B268" r:id="rId76" display="http://leo.informea.org/terms/sustainable-use"/>
-    <hyperlink ref="C270" r:id="rId77" display="http://leo.informea.org/terms/capacity-building"/>
-    <hyperlink ref="B271" r:id="rId78" display="http://leo.informea.org/terms/technology"/>
-    <hyperlink ref="B273" r:id="rId79" display="http://leo.informea.org/terms/benefit-sharing"/>
-    <hyperlink ref="C274" r:id="rId80" display="http://leo.informea.org/terms/illegal-trade"/>
-    <hyperlink ref="B276" r:id="rId81" display="http://leo.informea.org/terms/trade"/>
-    <hyperlink ref="B279" r:id="rId82" display="http://leo.informea.org/terms/illegal-trade"/>
-    <hyperlink ref="B281" r:id="rId83" display="http://leo.informea.org/terms/international-agreement"/>
-    <hyperlink ref="B282" r:id="rId84" display="http://leo.informea.org/terms/international-agreement"/>
-    <hyperlink ref="C282" r:id="rId85" display="http://leo.informea.org/terms/rules-procedure"/>
-    <hyperlink ref="B284" r:id="rId86" display="http://leo.informea.org/terms/hazardous-waste"/>
-    <hyperlink ref="C284" r:id="rId87" display="http://leo.informea.org/terms/waste"/>
-    <hyperlink ref="B289" r:id="rId88" display="http://leo.informea.org/terms/cultural-heritage"/>
-    <hyperlink ref="C289" r:id="rId89" display="http://leo.informea.org/terms/fund"/>
-    <hyperlink ref="B290" r:id="rId90" display="http://leo.informea.org/terms/cultural-heritage"/>
-    <hyperlink ref="C290" r:id="rId91" display="http://leo.informea.org/terms/protected-area"/>
+    <hyperlink ref="B159" r:id="rId1" location="c_c4864204" display="http://www.informea.org/terms#c_c4864204"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
